--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_1_9.xlsx
@@ -2368,7 +2368,7 @@
         <v>-2.305533699949835</v>
       </c>
       <c r="AG17">
-        <v>-7.578477024949737</v>
+        <v>-12.52375957300175</v>
       </c>
       <c r="AH17">
         <v>-7.260793671746435</v>
@@ -2451,19 +2451,19 @@
         <v>-6.248031846400004</v>
       </c>
       <c r="AG18">
-        <v>17.08516853885251</v>
+        <v>-47.88137131999106</v>
       </c>
       <c r="AH18">
-        <v>2.387971016884638</v>
+        <v>21.21858006100776</v>
       </c>
       <c r="AI18">
-        <v>-0.8212867190516282</v>
+        <v>6.393774768527782</v>
       </c>
       <c r="AJ18">
-        <v>5.121832664816339</v>
+        <v>5.866851037823739</v>
       </c>
       <c r="AK18">
-        <v>4.379227219808146</v>
+        <v>4.812213101419016</v>
       </c>
       <c r="AL18">
         <v>4.097586525396268</v>
@@ -2522,31 +2522,31 @@
         <v>-6.248031846400027</v>
       </c>
       <c r="AG19">
-        <v>35.89554062687916</v>
+        <v>-50.27375866381827</v>
       </c>
       <c r="AH19">
-        <v>8.744073482745772</v>
+        <v>41.46409724348858</v>
       </c>
       <c r="AI19">
-        <v>-3.88653222228782</v>
+        <v>15.67089147385303</v>
       </c>
       <c r="AJ19">
-        <v>12.25634856540583</v>
+        <v>16.14645080511217</v>
       </c>
       <c r="AK19">
-        <v>3.504204983279191</v>
+        <v>9.070066421051791</v>
       </c>
       <c r="AL19">
-        <v>3.347989317130651</v>
+        <v>0.2545830626331735</v>
       </c>
       <c r="AM19">
-        <v>5.102173676573241</v>
+        <v>15.72612644168099</v>
       </c>
       <c r="AN19">
-        <v>8.333485306093348</v>
+        <v>7.65308459027223</v>
       </c>
       <c r="AO19">
-        <v>7.397318165265498</v>
+        <v>7.775484240847463</v>
       </c>
       <c r="AP19">
         <v>7.824284864703746</v>
@@ -2589,38 +2589,35 @@
       <c r="A20" s="1">
         <v>45291</v>
       </c>
-      <c r="AI20">
-        <v>-3.88653222228782</v>
-      </c>
       <c r="AJ20">
-        <v>12.01397944140008</v>
+        <v>16.14645080511215</v>
       </c>
       <c r="AK20">
-        <v>1.75736703089977</v>
+        <v>8.516088902078645</v>
       </c>
       <c r="AL20">
-        <v>2.642735271026497</v>
+        <v>-2.227564075179089</v>
       </c>
       <c r="AM20">
-        <v>-5.324806173859886</v>
+        <v>21.93065486026811</v>
       </c>
       <c r="AN20">
-        <v>7.042341419899389</v>
+        <v>3.764943356222705</v>
       </c>
       <c r="AO20">
-        <v>1.541970075766486</v>
+        <v>6.225293198277626</v>
       </c>
       <c r="AP20">
-        <v>-2.122471977790918</v>
+        <v>9.160754435237916</v>
       </c>
       <c r="AQ20">
-        <v>-0.9123477982208139</v>
+        <v>-0.7754456294374545</v>
       </c>
       <c r="AR20">
-        <v>0.08405665459807476</v>
+        <v>-0.7255213069668365</v>
       </c>
       <c r="AS20">
-        <v>-0.3046246622258053</v>
+        <v>-0.4725309217548546</v>
       </c>
       <c r="AT20">
         <v>-1.24502235313334</v>
@@ -2651,38 +2648,35 @@
       <c r="A21" s="1">
         <v>45657</v>
       </c>
-      <c r="AM21">
-        <v>-5.324806173859898</v>
-      </c>
       <c r="AN21">
-        <v>7.259016349110547</v>
+        <v>3.764943356222705</v>
       </c>
       <c r="AO21">
-        <v>0.7918684718987823</v>
+        <v>6.530403773385118</v>
       </c>
       <c r="AP21">
-        <v>-7.825366874519224</v>
+        <v>9.74146762999637</v>
       </c>
       <c r="AQ21">
-        <v>-5.598178600215808</v>
+        <v>-5.245870741613656</v>
       </c>
       <c r="AR21">
-        <v>0.4484505192704713</v>
+        <v>-3.570724939213799</v>
       </c>
       <c r="AS21">
-        <v>1.814369137627603</v>
+        <v>-0.3981352764585111</v>
       </c>
       <c r="AT21">
-        <v>-4.678511595261359</v>
+        <v>-4.54008779124131</v>
       </c>
       <c r="AU21">
-        <v>-3.378144228902036</v>
+        <v>-5.658719874383733</v>
       </c>
       <c r="AV21">
-        <v>-2.055826728150212</v>
+        <v>-2.227101209415505</v>
       </c>
       <c r="AW21">
-        <v>-2.567041707495976</v>
+        <v>-2.497020900647695</v>
       </c>
       <c r="AX21">
         <v>-1.735114423676209</v>
@@ -2701,78 +2695,69 @@
       <c r="A22" s="1">
         <v>46022</v>
       </c>
-      <c r="AQ22">
-        <v>-5.598178600215798</v>
-      </c>
       <c r="AR22">
-        <v>0.7226812656453641</v>
+        <v>-3.57072493921381</v>
       </c>
       <c r="AS22">
-        <v>2.703975052213448</v>
+        <v>-0.03229333783605348</v>
       </c>
       <c r="AT22">
-        <v>-5.224146731568902</v>
+        <v>-5.002383928174381</v>
       </c>
       <c r="AU22">
-        <v>-0.366247000203368</v>
+        <v>-6.559334139663919</v>
       </c>
       <c r="AV22">
-        <v>3.376972582720295</v>
+        <v>2.482871059012237</v>
       </c>
       <c r="AW22">
-        <v>-0.6241557099098238</v>
+        <v>0.3065176867123709</v>
       </c>
       <c r="AX22">
-        <v>1.758477003221981</v>
+        <v>1.367318576177423</v>
       </c>
       <c r="AY22">
-        <v>1.830872485486124</v>
+        <v>2.719742156314631</v>
       </c>
       <c r="AZ22">
-        <v>1.378024997308636</v>
+        <v>2.163964137318475</v>
       </c>
       <c r="BA22">
-        <v>2.64031107104763</v>
+        <v>3.002653050584181</v>
       </c>
     </row>
     <row r="23" spans="1:53">
       <c r="A23" s="1">
         <v>46387</v>
       </c>
-      <c r="AU23">
-        <v>-0.366247000203368</v>
-      </c>
       <c r="AV23">
-        <v>3.43610437665669</v>
+        <v>2.482871059012237</v>
       </c>
       <c r="AW23">
-        <v>-1.03761143226524</v>
+        <v>0.1049326611546109</v>
       </c>
       <c r="AX23">
-        <v>1.243101329960039</v>
+        <v>0.6218542313880304</v>
       </c>
       <c r="AY23">
-        <v>-0.1271413384857256</v>
+        <v>2.20947630983328</v>
       </c>
       <c r="AZ23">
-        <v>0.4446401485209472</v>
+        <v>4.369038437191275</v>
       </c>
       <c r="BA23">
-        <v>2.021190955273178</v>
+        <v>6.721754212725695</v>
       </c>
     </row>
     <row r="24" spans="1:53">
       <c r="A24" s="1">
         <v>46752</v>
       </c>
-      <c r="AY24">
-        <v>-0.1271413384857256</v>
-      </c>
       <c r="AZ24">
-        <v>0.1895602113697104</v>
+        <v>4.369038437191275</v>
       </c>
       <c r="BA24">
-        <v>0.9883853625045624</v>
+        <v>6.73265239045755</v>
       </c>
     </row>
     <row r="25" spans="1:53">

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_1_9.xlsx
@@ -369,7 +369,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA25"/>
+  <dimension ref="A1:BA22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -535,2233 +535,1906 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="1">
-        <v>38717</v>
+        <v>39813</v>
       </c>
     </row>
     <row r="3" spans="1:53">
       <c r="A3" s="1">
-        <v>39082</v>
+        <v>40178</v>
+      </c>
+      <c r="B3">
+        <v>16.7428041852832</v>
+      </c>
+      <c r="C3">
+        <v>14.69926045795804</v>
+      </c>
+      <c r="D3">
+        <v>13.08276537368063</v>
+      </c>
+      <c r="E3">
+        <v>-8.992252553594259</v>
+      </c>
+      <c r="F3">
+        <v>-7.266312015249799</v>
+      </c>
+      <c r="G3">
+        <v>-7.392716344398065</v>
+      </c>
+      <c r="H3">
+        <v>-7.829486332896607</v>
+      </c>
+      <c r="I3">
+        <v>-7.964411665641935</v>
+      </c>
+      <c r="J3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="K3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="L3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="M3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="N3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="O3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="P3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Q3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="R3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="S3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="T3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="U3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="V3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="W3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="X3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Y3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="Z3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AA3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AB3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AC3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AD3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AE3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AF3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AG3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AH3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AI3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AJ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AK3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AL3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AM3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AN3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AO3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AP3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AQ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AR3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AS3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AT3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AU3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AV3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AW3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AX3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AY3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="AZ3">
+        <v>-7.864097658617908</v>
+      </c>
+      <c r="BA3">
+        <v>-7.864097658617908</v>
       </c>
     </row>
     <row r="4" spans="1:53">
       <c r="A4" s="1">
-        <v>39447</v>
-      </c>
-      <c r="B4">
-        <v>7.226520411029047</v>
+        <v>40543</v>
       </c>
       <c r="C4">
-        <v>6.680949307701334</v>
+        <v>14.69926045795804</v>
       </c>
       <c r="D4">
-        <v>7.264603558669824</v>
+        <v>16.15997088272798</v>
       </c>
       <c r="E4">
-        <v>7.264603558669824</v>
+        <v>-19.76480035196673</v>
       </c>
       <c r="F4">
-        <v>7.095684514498224</v>
+        <v>12.31225042954256</v>
       </c>
       <c r="G4">
-        <v>7.095684514498224</v>
+        <v>7.007132997505217</v>
       </c>
       <c r="H4">
-        <v>7.095684514498224</v>
+        <v>6.958243460951929</v>
       </c>
       <c r="I4">
-        <v>7.095684514498224</v>
+        <v>6.645187828014643</v>
       </c>
       <c r="J4">
-        <v>7.095684514498224</v>
+        <v>5.795450196953511</v>
       </c>
       <c r="K4">
-        <v>7.095684514498224</v>
+        <v>5.795450196953511</v>
       </c>
       <c r="L4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="M4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="N4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="O4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="P4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Q4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="R4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="S4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="T4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="U4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="V4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="W4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="X4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Y4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="Z4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AA4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AB4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AC4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AD4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AE4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AF4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AG4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AH4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AI4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AJ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AK4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AL4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AM4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AN4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AO4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AP4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AQ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AR4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AS4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AT4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AU4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AV4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AW4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AX4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AY4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="AZ4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
       <c r="BA4">
-        <v>7.095684514498224</v>
+        <v>5.172294413915957</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="A5" s="1">
-        <v>39813</v>
-      </c>
-      <c r="B5">
-        <v>13.12477391005418</v>
-      </c>
-      <c r="C5">
-        <v>7.424215059809214</v>
-      </c>
-      <c r="D5">
-        <v>4.268860212333636</v>
+        <v>40908</v>
       </c>
       <c r="E5">
-        <v>4.25289386958061</v>
+        <v>-19.76480035196674</v>
       </c>
       <c r="F5">
-        <v>4.368079871693031</v>
+        <v>21.43006985333493</v>
       </c>
       <c r="G5">
-        <v>4.368079871693031</v>
+        <v>26.6762552377682</v>
       </c>
       <c r="H5">
-        <v>3.210190562558712</v>
+        <v>12.04357532583245</v>
       </c>
       <c r="I5">
-        <v>3.210190562558712</v>
+        <v>8.866443976147087</v>
       </c>
       <c r="J5">
-        <v>3.210190562558712</v>
+        <v>9.469137444079955</v>
       </c>
       <c r="K5">
-        <v>3.210190562558712</v>
+        <v>9.856384149233444</v>
       </c>
       <c r="L5">
-        <v>3.210190562558712</v>
+        <v>9.359115278856267</v>
       </c>
       <c r="M5">
-        <v>3.210190562558712</v>
+        <v>9.359115278856267</v>
       </c>
       <c r="N5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="O5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="P5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Q5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="R5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="S5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="T5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="U5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="V5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="W5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="X5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Y5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="Z5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AA5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AB5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AC5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AD5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AE5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AF5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AG5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AH5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AI5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AJ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AK5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AL5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AM5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AN5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AO5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AP5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AQ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AR5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AS5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AT5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AU5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AV5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AW5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AX5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AY5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="AZ5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
       <c r="BA5">
-        <v>3.210190562558712</v>
+        <v>9.075100657941459</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="A6" s="1">
-        <v>40178</v>
-      </c>
-      <c r="B6">
-        <v>16.74280418528322</v>
-      </c>
-      <c r="C6">
-        <v>14.69926045795804</v>
-      </c>
-      <c r="D6">
-        <v>13.08276537368067</v>
-      </c>
-      <c r="E6">
-        <v>-8.992252553594248</v>
-      </c>
-      <c r="F6">
-        <v>-7.266312015249776</v>
+        <v>41274</v>
       </c>
       <c r="G6">
-        <v>-7.392716344398053</v>
+        <v>26.67625523776824</v>
       </c>
       <c r="H6">
-        <v>-7.829486332896618</v>
+        <v>7.961812621551512</v>
       </c>
       <c r="I6">
-        <v>-7.964411665641913</v>
+        <v>5.982869268853186</v>
       </c>
       <c r="J6">
-        <v>-7.864097658617897</v>
+        <v>10.69920649119718</v>
       </c>
       <c r="K6">
-        <v>-7.864097658617897</v>
+        <v>3.0013062146236</v>
       </c>
       <c r="L6">
-        <v>-7.864097658617897</v>
+        <v>3.358206407534969</v>
       </c>
       <c r="M6">
-        <v>-7.864097658617897</v>
+        <v>3.697114313724215</v>
       </c>
       <c r="N6">
-        <v>-7.864097658617897</v>
+        <v>3.260099947761641</v>
       </c>
       <c r="O6">
-        <v>-7.864097658617897</v>
+        <v>3.260099947761641</v>
       </c>
       <c r="P6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Q6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="R6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="S6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="T6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="U6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="V6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="W6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="X6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Y6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="Z6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AA6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AB6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AC6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AD6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AE6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AF6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AG6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AH6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AI6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AJ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AK6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AL6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AM6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AN6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AO6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AP6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AQ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AR6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AS6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AT6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AU6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AV6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AW6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AX6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AY6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="AZ6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
       <c r="BA6">
-        <v>-7.864097658617897</v>
+        <v>2.679910436989386</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="1">
-        <v>40543</v>
-      </c>
-      <c r="C7">
-        <v>14.69926045795802</v>
-      </c>
-      <c r="D7">
-        <v>16.15997088272798</v>
-      </c>
-      <c r="E7">
-        <v>-19.76480035196674</v>
-      </c>
-      <c r="F7">
-        <v>12.31225042954258</v>
-      </c>
-      <c r="G7">
-        <v>7.007132997505194</v>
-      </c>
-      <c r="H7">
-        <v>6.958243460951929</v>
+        <v>41639</v>
       </c>
       <c r="I7">
-        <v>6.64518782801462</v>
+        <v>5.982869268853164</v>
       </c>
       <c r="J7">
-        <v>5.795450196953511</v>
+        <v>11.00019233290965</v>
       </c>
       <c r="K7">
-        <v>5.795450196953511</v>
+        <v>0.08911682035466217</v>
       </c>
       <c r="L7">
-        <v>5.172294413915957</v>
+        <v>4.390489499870132</v>
       </c>
       <c r="M7">
-        <v>5.172294413915957</v>
+        <v>-2.90476933598719</v>
       </c>
       <c r="N7">
-        <v>5.172294413915957</v>
+        <v>0.3081076735359067</v>
       </c>
       <c r="O7">
-        <v>5.172294413915957</v>
+        <v>0.6837276428259154</v>
       </c>
       <c r="P7">
-        <v>5.172294413915957</v>
+        <v>1.966616993222026</v>
       </c>
       <c r="Q7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="R7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="S7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="T7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="U7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="V7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="W7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="X7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="Y7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="Z7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AA7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AB7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AC7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AD7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AE7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AF7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AG7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AH7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AI7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AJ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AK7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AL7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AM7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AN7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AO7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AP7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AQ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AR7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AS7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AT7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AU7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AV7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AW7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AX7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AY7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="AZ7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
       <c r="BA7">
-        <v>5.172294413915957</v>
+        <v>1.901982000667957</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="A8" s="1">
-        <v>40908</v>
-      </c>
-      <c r="E8">
-        <v>-19.76480035196673</v>
-      </c>
-      <c r="F8">
-        <v>21.43006985333496</v>
-      </c>
-      <c r="G8">
-        <v>26.6762552377682</v>
-      </c>
-      <c r="H8">
-        <v>12.04357532583245</v>
-      </c>
-      <c r="I8">
-        <v>8.86644397614711</v>
-      </c>
-      <c r="J8">
-        <v>9.469137444079934</v>
+        <v>42004</v>
       </c>
       <c r="K8">
-        <v>9.856384149233444</v>
+        <v>0.08911682035463997</v>
       </c>
       <c r="L8">
-        <v>9.359115278856244</v>
+        <v>4.241337247945287</v>
       </c>
       <c r="M8">
-        <v>9.359115278856244</v>
+        <v>-8.13908495190001</v>
       </c>
       <c r="N8">
-        <v>9.075100657941459</v>
+        <v>3.502435351035582</v>
       </c>
       <c r="O8">
-        <v>9.075100657941459</v>
+        <v>6.148460028297587</v>
       </c>
       <c r="P8">
-        <v>9.075100657941459</v>
+        <v>3.901355411819685</v>
       </c>
       <c r="Q8">
-        <v>9.075100657941459</v>
+        <v>3.736958261562484</v>
       </c>
       <c r="R8">
-        <v>9.075100657941459</v>
+        <v>3.985650080172465</v>
       </c>
       <c r="S8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="T8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="U8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="V8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="W8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="X8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="Y8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="Z8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AA8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AB8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AC8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AD8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AE8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AF8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AG8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AH8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AI8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AJ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AK8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AL8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AM8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AN8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AO8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AP8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AQ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AR8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AS8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AT8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AU8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AV8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AW8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AX8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AY8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="AZ8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
       <c r="BA8">
-        <v>9.075100657941459</v>
+        <v>4.096464207715544</v>
       </c>
     </row>
     <row r="9" spans="1:53">
       <c r="A9" s="1">
-        <v>41274</v>
-      </c>
-      <c r="G9">
-        <v>26.67625523776824</v>
-      </c>
-      <c r="H9">
-        <v>7.961812621551534</v>
-      </c>
-      <c r="I9">
-        <v>5.982869268853186</v>
-      </c>
-      <c r="J9">
-        <v>10.6992064911972</v>
-      </c>
-      <c r="K9">
-        <v>3.001306214623578</v>
-      </c>
-      <c r="L9">
-        <v>3.358206407534947</v>
+        <v>42369</v>
       </c>
       <c r="M9">
-        <v>3.697114313724237</v>
+        <v>-8.139084951899999</v>
       </c>
       <c r="N9">
-        <v>3.260099947761663</v>
+        <v>3.286639495651111</v>
       </c>
       <c r="O9">
-        <v>3.260099947761663</v>
+        <v>9.131012060398703</v>
       </c>
       <c r="P9">
-        <v>2.679910436989408</v>
+        <v>6.143002545701304</v>
       </c>
       <c r="Q9">
-        <v>2.679910436989408</v>
+        <v>5.171596082708629</v>
       </c>
       <c r="R9">
-        <v>2.679910436989408</v>
+        <v>5.331683351557981</v>
       </c>
       <c r="S9">
-        <v>2.679910436989408</v>
+        <v>5.338999401506328</v>
       </c>
       <c r="T9">
-        <v>2.679910436989408</v>
+        <v>4.669810934539109</v>
       </c>
       <c r="U9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="V9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="W9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="X9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="Y9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="Z9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AA9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AB9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AC9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AD9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AE9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AF9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AG9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AH9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AI9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AJ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AK9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AL9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AM9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AN9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AO9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AP9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AQ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AR9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AS9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AT9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AU9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AV9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AW9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AX9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AY9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="AZ9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
       <c r="BA9">
-        <v>2.679910436989408</v>
+        <v>4.722511558181752</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="A10" s="1">
-        <v>41639</v>
-      </c>
-      <c r="I10">
-        <v>5.982869268853164</v>
-      </c>
-      <c r="J10">
-        <v>11.00019233290965</v>
-      </c>
-      <c r="K10">
-        <v>0.08911682035466217</v>
-      </c>
-      <c r="L10">
-        <v>4.390489499870109</v>
-      </c>
-      <c r="M10">
-        <v>-2.904769335987201</v>
-      </c>
-      <c r="N10">
-        <v>0.3081076735359067</v>
+        <v>42735</v>
       </c>
       <c r="O10">
-        <v>0.6837276428259154</v>
+        <v>9.131012060398724</v>
       </c>
       <c r="P10">
-        <v>1.966616993222048</v>
+        <v>6.881957866590049</v>
       </c>
       <c r="Q10">
-        <v>1.901982000667957</v>
+        <v>5.986046065677453</v>
       </c>
       <c r="R10">
-        <v>1.901982000667957</v>
+        <v>4.555278923792594</v>
       </c>
       <c r="S10">
-        <v>1.901982000667957</v>
+        <v>4.337699953939178</v>
       </c>
       <c r="T10">
-        <v>1.901982000667957</v>
+        <v>3.254758369308375</v>
       </c>
       <c r="U10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="V10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="W10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="X10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="Y10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="Z10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AA10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AB10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AC10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AD10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AE10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AF10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AG10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AH10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AI10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AJ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AK10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AL10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AM10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AN10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AO10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AP10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AQ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AR10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AS10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AT10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AU10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AV10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AW10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AX10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AY10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="AZ10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
       <c r="BA10">
-        <v>1.901982000667957</v>
+        <v>3.349054996465806</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="A11" s="1">
-        <v>42004</v>
-      </c>
-      <c r="K11">
-        <v>0.08911682035466217</v>
-      </c>
-      <c r="L11">
-        <v>4.241337247945309</v>
-      </c>
-      <c r="M11">
-        <v>-8.13908495190001</v>
-      </c>
-      <c r="N11">
-        <v>3.50243535103556</v>
-      </c>
-      <c r="O11">
-        <v>6.148460028297587</v>
-      </c>
-      <c r="P11">
-        <v>3.901355411819707</v>
+        <v>43100</v>
       </c>
       <c r="Q11">
-        <v>3.736958261562484</v>
+        <v>5.986046065677431</v>
       </c>
       <c r="R11">
-        <v>3.985650080172465</v>
+        <v>4.658104120675532</v>
       </c>
       <c r="S11">
-        <v>4.096464207715544</v>
+        <v>5.703761500281579</v>
       </c>
       <c r="T11">
-        <v>4.096464207715544</v>
+        <v>0.9515943257393467</v>
       </c>
       <c r="U11">
-        <v>4.096464207715544</v>
+        <v>4.073887526082043</v>
       </c>
       <c r="V11">
-        <v>4.096464207715544</v>
+        <v>5.246209615995689</v>
       </c>
       <c r="W11">
-        <v>4.096464207715544</v>
+        <v>5.336448956671025</v>
       </c>
       <c r="X11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="Y11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="Z11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AA11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AB11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AC11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AD11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AE11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AF11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AG11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AH11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AI11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AJ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AK11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AL11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AM11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AN11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AO11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AP11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AQ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AR11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AS11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AT11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AU11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AV11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AW11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AX11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AY11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="AZ11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
       <c r="BA11">
-        <v>4.096464207715544</v>
+        <v>5.398773774976817</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="A12" s="1">
-        <v>42369</v>
-      </c>
-      <c r="M12">
-        <v>-8.139084951899999</v>
-      </c>
-      <c r="N12">
-        <v>3.286639495651111</v>
-      </c>
-      <c r="O12">
-        <v>9.131012060398724</v>
-      </c>
-      <c r="P12">
-        <v>6.143002545701282</v>
-      </c>
-      <c r="Q12">
-        <v>5.171596082708629</v>
-      </c>
-      <c r="R12">
-        <v>5.331683351557981</v>
+        <v>43465</v>
       </c>
       <c r="S12">
-        <v>5.338999401506328</v>
+        <v>5.703761500281579</v>
       </c>
       <c r="T12">
-        <v>4.669810934539087</v>
+        <v>0.6460822032302582</v>
       </c>
       <c r="U12">
-        <v>4.722511558181774</v>
+        <v>1.602827009554897</v>
       </c>
       <c r="V12">
-        <v>4.722511558181774</v>
+        <v>4.251116704684899</v>
       </c>
       <c r="W12">
-        <v>4.722511558181774</v>
+        <v>7.340964210079837</v>
       </c>
       <c r="X12">
-        <v>4.722511558181774</v>
+        <v>2.281540236993274</v>
       </c>
       <c r="Y12">
-        <v>4.722511558181774</v>
+        <v>5.152630504861988</v>
       </c>
       <c r="Z12">
-        <v>4.722511558181774</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="AA12">
-        <v>4.722511558181774</v>
+        <v>4.848325243959639</v>
       </c>
       <c r="AB12">
-        <v>4.722511558181774</v>
+        <v>4.862559663742938</v>
       </c>
       <c r="AC12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AD12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AE12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AF12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AG12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AH12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AI12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AJ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AK12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AL12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AM12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AN12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AO12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AP12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AQ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AR12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AS12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AT12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AU12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AV12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AW12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AX12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AY12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="AZ12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
       <c r="BA12">
-        <v>4.722511558181774</v>
+        <v>4.827382248746059</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="A13" s="1">
-        <v>42735</v>
-      </c>
-      <c r="O13">
-        <v>9.131012060398703</v>
-      </c>
-      <c r="P13">
-        <v>6.881957866590049</v>
-      </c>
-      <c r="Q13">
-        <v>5.986046065677453</v>
-      </c>
-      <c r="R13">
-        <v>4.555278923792572</v>
-      </c>
-      <c r="S13">
-        <v>4.337699953939178</v>
-      </c>
-      <c r="T13">
-        <v>3.254758369308375</v>
+        <v>43830</v>
       </c>
       <c r="U13">
-        <v>3.349054996465806</v>
+        <v>1.602827009554897</v>
       </c>
       <c r="V13">
-        <v>3.349054996465806</v>
+        <v>3.61618008042015</v>
       </c>
       <c r="W13">
-        <v>3.349054996465806</v>
+        <v>8.197760099691219</v>
       </c>
       <c r="X13">
-        <v>3.349054996465806</v>
+        <v>-4.308894244053663</v>
       </c>
       <c r="Y13">
-        <v>3.349054996465806</v>
+        <v>6.518301903862955</v>
       </c>
       <c r="Z13">
-        <v>3.349054996465806</v>
+        <v>4.992093705734701</v>
       </c>
       <c r="AA13">
-        <v>3.349054996465806</v>
+        <v>3.497157880977597</v>
       </c>
       <c r="AB13">
-        <v>3.349054996465806</v>
+        <v>3.436682959168125</v>
       </c>
       <c r="AC13">
-        <v>3.349054996465806</v>
+        <v>2.727571990295941</v>
       </c>
       <c r="AD13">
-        <v>3.349054996465806</v>
+        <v>2.76474001115945</v>
       </c>
       <c r="AE13">
-        <v>3.349054996465806</v>
+        <v>2.362865648905155</v>
       </c>
       <c r="AF13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AG13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AH13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AI13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AJ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AK13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AL13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AM13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AN13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AO13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AP13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AQ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AR13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AS13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AT13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AU13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AV13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AW13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AX13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AY13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="AZ13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
       <c r="BA13">
-        <v>3.349054996465806</v>
+        <v>3.057436569079708</v>
       </c>
     </row>
     <row r="14" spans="1:53">
       <c r="A14" s="1">
-        <v>43100</v>
-      </c>
-      <c r="Q14">
-        <v>5.986046065677431</v>
-      </c>
-      <c r="R14">
-        <v>4.658104120675532</v>
-      </c>
-      <c r="S14">
-        <v>5.703761500281579</v>
-      </c>
-      <c r="T14">
-        <v>0.9515943257393689</v>
-      </c>
-      <c r="U14">
-        <v>4.073887526082065</v>
-      </c>
-      <c r="V14">
-        <v>5.246209615995667</v>
-      </c>
-      <c r="W14">
-        <v>5.336448956671025</v>
+        <v>44196</v>
       </c>
       <c r="X14">
-        <v>5.398773774976817</v>
+        <v>-4.308894244053663</v>
       </c>
       <c r="Y14">
-        <v>5.398773774976817</v>
+        <v>7.01734500971154</v>
       </c>
       <c r="Z14">
-        <v>5.398773774976817</v>
+        <v>5.302281656099961</v>
       </c>
       <c r="AA14">
-        <v>5.398773774976817</v>
+        <v>2.970919592955878</v>
       </c>
       <c r="AB14">
-        <v>5.398773774976817</v>
+        <v>2.82953744009995</v>
       </c>
       <c r="AC14">
-        <v>5.398773774976817</v>
+        <v>-0.7915059299106075</v>
       </c>
       <c r="AD14">
-        <v>5.398773774976817</v>
+        <v>0.3611963426345843</v>
       </c>
       <c r="AE14">
-        <v>5.398773774976817</v>
+        <v>2.93113923573054</v>
       </c>
       <c r="AF14">
-        <v>5.398773774976817</v>
+        <v>-2.305533699949858</v>
       </c>
       <c r="AG14">
-        <v>5.398773774976817</v>
+        <v>-12.52375957300176</v>
       </c>
       <c r="AH14">
-        <v>5.398773774976817</v>
+        <v>-7.260793671746447</v>
       </c>
       <c r="AI14">
-        <v>5.398773774976817</v>
+        <v>-7.373714785196384</v>
       </c>
       <c r="AJ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AK14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AL14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AM14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AN14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AO14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AP14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AQ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AR14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AS14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AT14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AU14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AV14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AW14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AX14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AY14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="AZ14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
       <c r="BA14">
-        <v>5.398773774976817</v>
+        <v>-7.240028578896962</v>
       </c>
     </row>
     <row r="15" spans="1:53">
       <c r="A15" s="1">
-        <v>43465</v>
-      </c>
-      <c r="S15">
-        <v>5.703761500281579</v>
-      </c>
-      <c r="T15">
-        <v>0.6460822032302582</v>
-      </c>
-      <c r="U15">
-        <v>1.602827009554897</v>
-      </c>
-      <c r="V15">
-        <v>4.251116704684899</v>
-      </c>
-      <c r="W15">
-        <v>7.340964210079881</v>
-      </c>
-      <c r="X15">
-        <v>2.281540236993274</v>
-      </c>
-      <c r="Y15">
-        <v>5.15263050486201</v>
-      </c>
-      <c r="Z15">
-        <v>4.86255966374296</v>
-      </c>
-      <c r="AA15">
-        <v>4.848325243959661</v>
+        <v>44561</v>
       </c>
       <c r="AB15">
-        <v>4.86255966374296</v>
+        <v>2.829537440099972</v>
       </c>
       <c r="AC15">
-        <v>4.827382248746037</v>
+        <v>-1.091560600572017</v>
       </c>
       <c r="AD15">
-        <v>4.827382248746037</v>
+        <v>0.2749593572025422</v>
       </c>
       <c r="AE15">
-        <v>4.827382248746037</v>
+        <v>5.185727774795068</v>
       </c>
       <c r="AF15">
-        <v>4.827382248746037</v>
+        <v>-6.248031846400004</v>
       </c>
       <c r="AG15">
-        <v>4.827382248746037</v>
+        <v>-47.88137131999108</v>
       </c>
       <c r="AH15">
-        <v>4.827382248746037</v>
+        <v>21.21858006100774</v>
       </c>
       <c r="AI15">
-        <v>4.827382248746037</v>
+        <v>6.393774768527805</v>
       </c>
       <c r="AJ15">
-        <v>4.827382248746037</v>
+        <v>5.866851037823739</v>
       </c>
       <c r="AK15">
-        <v>4.827382248746037</v>
+        <v>4.812213101419016</v>
       </c>
       <c r="AL15">
-        <v>4.827382248746037</v>
+        <v>4.097586525396246</v>
       </c>
       <c r="AM15">
-        <v>4.827382248746037</v>
+        <v>4.412562682863852</v>
       </c>
       <c r="AN15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AO15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AP15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AQ15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AR15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AS15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AT15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AU15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AV15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AW15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AX15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AY15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="AZ15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
       <c r="BA15">
-        <v>4.827382248746037</v>
+        <v>4.518318737295335</v>
       </c>
     </row>
     <row r="16" spans="1:53">
       <c r="A16" s="1">
-        <v>43830</v>
-      </c>
-      <c r="U16">
-        <v>1.602827009554897</v>
-      </c>
-      <c r="V16">
-        <v>3.61618008042015</v>
-      </c>
-      <c r="W16">
-        <v>8.197760099691198</v>
-      </c>
-      <c r="X16">
-        <v>-4.308894244053674</v>
-      </c>
-      <c r="Y16">
-        <v>6.518301903862911</v>
-      </c>
-      <c r="Z16">
-        <v>4.992093705734701</v>
-      </c>
-      <c r="AA16">
-        <v>3.497157880977619</v>
-      </c>
-      <c r="AB16">
-        <v>3.436682959168125</v>
-      </c>
-      <c r="AC16">
-        <v>2.727571990295941</v>
-      </c>
-      <c r="AD16">
-        <v>2.764740011159428</v>
-      </c>
-      <c r="AE16">
-        <v>2.362865648905155</v>
+        <v>44926</v>
       </c>
       <c r="AF16">
-        <v>3.057436569079686</v>
+        <v>-6.248031846400027</v>
       </c>
       <c r="AG16">
-        <v>3.057436569079686</v>
+        <v>-50.27375866381827</v>
       </c>
       <c r="AH16">
-        <v>3.057436569079686</v>
+        <v>41.46409724348856</v>
       </c>
       <c r="AI16">
-        <v>3.057436569079686</v>
+        <v>15.67089147385301</v>
       </c>
       <c r="AJ16">
-        <v>3.057436569079686</v>
+        <v>16.14645080511215</v>
       </c>
       <c r="AK16">
-        <v>3.057436569079686</v>
+        <v>9.070066421051791</v>
       </c>
       <c r="AL16">
-        <v>3.057436569079686</v>
+        <v>0.2545830626331735</v>
       </c>
       <c r="AM16">
-        <v>3.057436569079686</v>
+        <v>15.72612644168099</v>
       </c>
       <c r="AN16">
-        <v>3.057436569079686</v>
+        <v>7.65308459027223</v>
       </c>
       <c r="AO16">
-        <v>3.057436569079686</v>
+        <v>7.775484240847486</v>
       </c>
       <c r="AP16">
-        <v>3.057436569079686</v>
+        <v>7.824284864703768</v>
       </c>
       <c r="AQ16">
-        <v>3.057436569079686</v>
+        <v>7.584463210315628</v>
       </c>
       <c r="AR16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AS16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AT16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AU16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AV16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AW16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AX16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AY16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="AZ16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
       <c r="BA16">
-        <v>3.057436569079686</v>
+        <v>8.368890311302657</v>
       </c>
     </row>
     <row r="17" spans="1:53">
       <c r="A17" s="1">
-        <v>44196</v>
-      </c>
-      <c r="X17">
-        <v>-4.308894244053663</v>
-      </c>
-      <c r="Y17">
-        <v>7.01734500971154</v>
-      </c>
-      <c r="Z17">
-        <v>5.302281656099961</v>
-      </c>
-      <c r="AA17">
-        <v>2.970919592955878</v>
-      </c>
-      <c r="AB17">
-        <v>2.82953744009995</v>
-      </c>
-      <c r="AC17">
-        <v>-0.7915059299106297</v>
-      </c>
-      <c r="AD17">
-        <v>0.3611963426346065</v>
-      </c>
-      <c r="AE17">
-        <v>2.93113923573054</v>
-      </c>
-      <c r="AF17">
-        <v>-2.305533699949835</v>
-      </c>
-      <c r="AG17">
-        <v>-12.52375957300175</v>
-      </c>
-      <c r="AH17">
-        <v>-7.260793671746435</v>
-      </c>
-      <c r="AI17">
-        <v>-7.373714785196372</v>
+        <v>45291</v>
       </c>
       <c r="AJ17">
-        <v>-7.240028578896951</v>
+        <v>16.14645080511215</v>
       </c>
       <c r="AK17">
-        <v>-7.240028578896951</v>
+        <v>8.516088902078645</v>
       </c>
       <c r="AL17">
-        <v>-7.240028578896951</v>
+        <v>-2.227564075179078</v>
       </c>
       <c r="AM17">
-        <v>-7.240028578896951</v>
+        <v>21.93065486026811</v>
       </c>
       <c r="AN17">
-        <v>-7.240028578896951</v>
+        <v>3.764943356222705</v>
       </c>
       <c r="AO17">
-        <v>-7.240028578896951</v>
+        <v>6.225293198277626</v>
       </c>
       <c r="AP17">
-        <v>-7.240028578896951</v>
+        <v>9.160754435237916</v>
       </c>
       <c r="AQ17">
-        <v>-7.240028578896951</v>
+        <v>-0.7754456294374767</v>
       </c>
       <c r="AR17">
-        <v>-7.240028578896951</v>
+        <v>-0.7255213069668365</v>
       </c>
       <c r="AS17">
-        <v>-7.240028578896951</v>
+        <v>-0.4725309217548324</v>
       </c>
       <c r="AT17">
-        <v>-7.240028578896951</v>
+        <v>-1.245022353133318</v>
       </c>
       <c r="AU17">
-        <v>-7.240028578896951</v>
+        <v>-1.329027666126548</v>
       </c>
       <c r="AV17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AW17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AX17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AY17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="AZ17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
       <c r="BA17">
-        <v>-7.240028578896951</v>
+        <v>-0.5780765226327311</v>
       </c>
     </row>
     <row r="18" spans="1:53">
       <c r="A18" s="1">
-        <v>44561</v>
-      </c>
-      <c r="AB18">
-        <v>2.82953744009995</v>
-      </c>
-      <c r="AC18">
-        <v>-1.091560600572028</v>
-      </c>
-      <c r="AD18">
-        <v>0.2749593572025422</v>
-      </c>
-      <c r="AE18">
-        <v>5.185727774795068</v>
-      </c>
-      <c r="AF18">
-        <v>-6.248031846400004</v>
-      </c>
-      <c r="AG18">
-        <v>-47.88137131999106</v>
-      </c>
-      <c r="AH18">
-        <v>21.21858006100776</v>
-      </c>
-      <c r="AI18">
-        <v>6.393774768527782</v>
-      </c>
-      <c r="AJ18">
-        <v>5.866851037823739</v>
-      </c>
-      <c r="AK18">
-        <v>4.812213101419016</v>
-      </c>
-      <c r="AL18">
-        <v>4.097586525396268</v>
-      </c>
-      <c r="AM18">
-        <v>4.412562682863852</v>
+        <v>45657</v>
       </c>
       <c r="AN18">
-        <v>4.518318737295357</v>
+        <v>3.764943356222705</v>
       </c>
       <c r="AO18">
-        <v>4.518318737295357</v>
+        <v>6.530403773385118</v>
       </c>
       <c r="AP18">
-        <v>4.518318737295357</v>
+        <v>9.74146762999637</v>
       </c>
       <c r="AQ18">
-        <v>4.518318737295357</v>
+        <v>-5.245870741613645</v>
       </c>
       <c r="AR18">
-        <v>4.518318737295357</v>
+        <v>-3.570724939213787</v>
       </c>
       <c r="AS18">
-        <v>4.518318737295357</v>
+        <v>-0.3981352764585111</v>
       </c>
       <c r="AT18">
-        <v>4.518318737295357</v>
+        <v>-4.54008779124131</v>
       </c>
       <c r="AU18">
-        <v>4.518318737295357</v>
+        <v>-5.658719874383722</v>
       </c>
       <c r="AV18">
-        <v>4.518318737295357</v>
+        <v>-2.227101209415505</v>
       </c>
       <c r="AW18">
-        <v>4.518318737295357</v>
+        <v>-2.497020900647684</v>
       </c>
       <c r="AX18">
-        <v>4.518318737295357</v>
+        <v>-1.735114423676209</v>
       </c>
       <c r="AY18">
-        <v>4.518318737295357</v>
+        <v>-1.578781203690705</v>
       </c>
       <c r="AZ18">
-        <v>4.518318737295357</v>
+        <v>-2.031769649484816</v>
       </c>
       <c r="BA18">
-        <v>4.518318737295357</v>
+        <v>-2.031769649484816</v>
       </c>
     </row>
     <row r="19" spans="1:53">
       <c r="A19" s="1">
-        <v>44926</v>
-      </c>
-      <c r="AF19">
-        <v>-6.248031846400027</v>
-      </c>
-      <c r="AG19">
-        <v>-50.27375866381827</v>
-      </c>
-      <c r="AH19">
-        <v>41.46409724348858</v>
-      </c>
-      <c r="AI19">
-        <v>15.67089147385303</v>
-      </c>
-      <c r="AJ19">
-        <v>16.14645080511217</v>
-      </c>
-      <c r="AK19">
-        <v>9.070066421051791</v>
-      </c>
-      <c r="AL19">
-        <v>0.2545830626331735</v>
-      </c>
-      <c r="AM19">
-        <v>15.72612644168099</v>
-      </c>
-      <c r="AN19">
-        <v>7.65308459027223</v>
-      </c>
-      <c r="AO19">
-        <v>7.775484240847463</v>
-      </c>
-      <c r="AP19">
-        <v>7.824284864703746</v>
-      </c>
-      <c r="AQ19">
-        <v>7.584463210315606</v>
+        <v>46022</v>
       </c>
       <c r="AR19">
-        <v>8.368890311302657</v>
+        <v>-3.570724939213799</v>
       </c>
       <c r="AS19">
-        <v>8.368890311302657</v>
+        <v>-0.03229333783604238</v>
       </c>
       <c r="AT19">
-        <v>8.368890311302657</v>
+        <v>-5.002383928174369</v>
       </c>
       <c r="AU19">
-        <v>8.368890311302657</v>
+        <v>-6.559334139663897</v>
       </c>
       <c r="AV19">
-        <v>8.368890311302657</v>
+        <v>2.482871059012237</v>
       </c>
       <c r="AW19">
-        <v>8.368890311302657</v>
+        <v>0.3065176867123487</v>
       </c>
       <c r="AX19">
-        <v>8.368890311302657</v>
+        <v>1.367318576177423</v>
       </c>
       <c r="AY19">
-        <v>8.368890311302657</v>
+        <v>2.719742156314631</v>
       </c>
       <c r="AZ19">
-        <v>8.368890311302657</v>
+        <v>2.163964137318475</v>
       </c>
       <c r="BA19">
-        <v>8.368890311302657</v>
+        <v>3.002653050584203</v>
       </c>
     </row>
     <row r="20" spans="1:53">
       <c r="A20" s="1">
-        <v>45291</v>
-      </c>
-      <c r="AJ20">
-        <v>16.14645080511215</v>
-      </c>
-      <c r="AK20">
-        <v>8.516088902078645</v>
-      </c>
-      <c r="AL20">
-        <v>-2.227564075179089</v>
-      </c>
-      <c r="AM20">
-        <v>21.93065486026811</v>
-      </c>
-      <c r="AN20">
-        <v>3.764943356222705</v>
-      </c>
-      <c r="AO20">
-        <v>6.225293198277626</v>
-      </c>
-      <c r="AP20">
-        <v>9.160754435237916</v>
-      </c>
-      <c r="AQ20">
-        <v>-0.7754456294374545</v>
-      </c>
-      <c r="AR20">
-        <v>-0.7255213069668365</v>
-      </c>
-      <c r="AS20">
-        <v>-0.4725309217548546</v>
-      </c>
-      <c r="AT20">
-        <v>-1.24502235313334</v>
-      </c>
-      <c r="AU20">
-        <v>-1.329027666126559</v>
+        <v>46387</v>
       </c>
       <c r="AV20">
-        <v>-0.5780765226327422</v>
+        <v>2.482871059012237</v>
       </c>
       <c r="AW20">
-        <v>-0.5780765226327422</v>
+        <v>0.1049326611545887</v>
       </c>
       <c r="AX20">
-        <v>-0.5780765226327422</v>
+        <v>0.6218542313880304</v>
       </c>
       <c r="AY20">
-        <v>-0.5780765226327422</v>
+        <v>2.20947630983328</v>
       </c>
       <c r="AZ20">
-        <v>-0.5780765226327422</v>
+        <v>4.369038437191275</v>
       </c>
       <c r="BA20">
-        <v>-0.5780765226327422</v>
+        <v>6.721754212725695</v>
       </c>
     </row>
     <row r="21" spans="1:53">
       <c r="A21" s="1">
-        <v>45657</v>
-      </c>
-      <c r="AN21">
-        <v>3.764943356222705</v>
-      </c>
-      <c r="AO21">
-        <v>6.530403773385118</v>
-      </c>
-      <c r="AP21">
-        <v>9.74146762999637</v>
-      </c>
-      <c r="AQ21">
-        <v>-5.245870741613656</v>
-      </c>
-      <c r="AR21">
-        <v>-3.570724939213799</v>
-      </c>
-      <c r="AS21">
-        <v>-0.3981352764585111</v>
-      </c>
-      <c r="AT21">
-        <v>-4.54008779124131</v>
-      </c>
-      <c r="AU21">
-        <v>-5.658719874383733</v>
-      </c>
-      <c r="AV21">
-        <v>-2.227101209415505</v>
-      </c>
-      <c r="AW21">
-        <v>-2.497020900647695</v>
-      </c>
-      <c r="AX21">
-        <v>-1.735114423676209</v>
-      </c>
-      <c r="AY21">
-        <v>-1.578781203690705</v>
+        <v>46752</v>
       </c>
       <c r="AZ21">
-        <v>-2.031769649484816</v>
+        <v>4.369038437191275</v>
       </c>
       <c r="BA21">
-        <v>-2.031769649484816</v>
+        <v>6.73265239045755</v>
       </c>
     </row>
     <row r="22" spans="1:53">
       <c r="A22" s="1">
-        <v>46022</v>
-      </c>
-      <c r="AR22">
-        <v>-3.57072493921381</v>
-      </c>
-      <c r="AS22">
-        <v>-0.03229333783605348</v>
-      </c>
-      <c r="AT22">
-        <v>-5.002383928174381</v>
-      </c>
-      <c r="AU22">
-        <v>-6.559334139663919</v>
-      </c>
-      <c r="AV22">
-        <v>2.482871059012237</v>
-      </c>
-      <c r="AW22">
-        <v>0.3065176867123709</v>
-      </c>
-      <c r="AX22">
-        <v>1.367318576177423</v>
-      </c>
-      <c r="AY22">
-        <v>2.719742156314631</v>
-      </c>
-      <c r="AZ22">
-        <v>2.163964137318475</v>
-      </c>
-      <c r="BA22">
-        <v>3.002653050584181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:53">
-      <c r="A23" s="1">
-        <v>46387</v>
-      </c>
-      <c r="AV23">
-        <v>2.482871059012237</v>
-      </c>
-      <c r="AW23">
-        <v>0.1049326611546109</v>
-      </c>
-      <c r="AX23">
-        <v>0.6218542313880304</v>
-      </c>
-      <c r="AY23">
-        <v>2.20947630983328</v>
-      </c>
-      <c r="AZ23">
-        <v>4.369038437191275</v>
-      </c>
-      <c r="BA23">
-        <v>6.721754212725695</v>
-      </c>
-    </row>
-    <row r="24" spans="1:53">
-      <c r="A24" s="1">
-        <v>46752</v>
-      </c>
-      <c r="AZ24">
-        <v>4.369038437191275</v>
-      </c>
-      <c r="BA24">
-        <v>6.73265239045755</v>
-      </c>
-    </row>
-    <row r="25" spans="1:53">
-      <c r="A25" s="1">
         <v>47118</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_1_9.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/2_Combined_YoY_Component_Forecasts/dt_full_yoy_IMPORT_AVERAGE_1_9.xlsx
@@ -369,13 +369,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BA22"/>
+  <dimension ref="A1:BB22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:53">
+    <row r="1" spans="1:54">
       <c r="B1" s="1">
         <v>39400</v>
       </c>
@@ -532,13 +532,16 @@
       <c r="BA1" s="1">
         <v>45891</v>
       </c>
+      <c r="BB1" s="1">
+        <v>45986</v>
+      </c>
     </row>
-    <row r="2" spans="1:53">
+    <row r="2" spans="1:54">
       <c r="A2" s="1">
         <v>39813</v>
       </c>
     </row>
-    <row r="3" spans="1:53">
+    <row r="3" spans="1:54">
       <c r="A3" s="1">
         <v>40178</v>
       </c>
@@ -698,8 +701,11 @@
       <c r="BA3">
         <v>-7.864097658617908</v>
       </c>
+      <c r="BB3">
+        <v>-7.864097658617908</v>
+      </c>
     </row>
-    <row r="4" spans="1:53">
+    <row r="4" spans="1:54">
       <c r="A4" s="1">
         <v>40543</v>
       </c>
@@ -856,8 +862,11 @@
       <c r="BA4">
         <v>5.172294413915957</v>
       </c>
+      <c r="BB4">
+        <v>5.172294413915957</v>
+      </c>
     </row>
-    <row r="5" spans="1:53">
+    <row r="5" spans="1:54">
       <c r="A5" s="1">
         <v>40908</v>
       </c>
@@ -1008,8 +1017,11 @@
       <c r="BA5">
         <v>9.075100657941459</v>
       </c>
+      <c r="BB5">
+        <v>9.075100657941459</v>
+      </c>
     </row>
-    <row r="6" spans="1:53">
+    <row r="6" spans="1:54">
       <c r="A6" s="1">
         <v>41274</v>
       </c>
@@ -1154,8 +1166,11 @@
       <c r="BA6">
         <v>2.679910436989386</v>
       </c>
+      <c r="BB6">
+        <v>2.679910436989386</v>
+      </c>
     </row>
-    <row r="7" spans="1:53">
+    <row r="7" spans="1:54">
       <c r="A7" s="1">
         <v>41639</v>
       </c>
@@ -1294,8 +1309,11 @@
       <c r="BA7">
         <v>1.901982000667957</v>
       </c>
+      <c r="BB7">
+        <v>1.901982000667957</v>
+      </c>
     </row>
-    <row r="8" spans="1:53">
+    <row r="8" spans="1:54">
       <c r="A8" s="1">
         <v>42004</v>
       </c>
@@ -1428,8 +1446,11 @@
       <c r="BA8">
         <v>4.096464207715544</v>
       </c>
+      <c r="BB8">
+        <v>4.096464207715544</v>
+      </c>
     </row>
-    <row r="9" spans="1:53">
+    <row r="9" spans="1:54">
       <c r="A9" s="1">
         <v>42369</v>
       </c>
@@ -1556,8 +1577,11 @@
       <c r="BA9">
         <v>4.722511558181752</v>
       </c>
+      <c r="BB9">
+        <v>4.722511558181752</v>
+      </c>
     </row>
-    <row r="10" spans="1:53">
+    <row r="10" spans="1:54">
       <c r="A10" s="1">
         <v>42735</v>
       </c>
@@ -1678,8 +1702,11 @@
       <c r="BA10">
         <v>3.349054996465806</v>
       </c>
+      <c r="BB10">
+        <v>3.349054996465806</v>
+      </c>
     </row>
-    <row r="11" spans="1:53">
+    <row r="11" spans="1:54">
       <c r="A11" s="1">
         <v>43100</v>
       </c>
@@ -1794,8 +1821,11 @@
       <c r="BA11">
         <v>5.398773774976817</v>
       </c>
+      <c r="BB11">
+        <v>5.398773774976817</v>
+      </c>
     </row>
-    <row r="12" spans="1:53">
+    <row r="12" spans="1:54">
       <c r="A12" s="1">
         <v>43465</v>
       </c>
@@ -1904,8 +1934,11 @@
       <c r="BA12">
         <v>4.827382248746059</v>
       </c>
+      <c r="BB12">
+        <v>4.827382248746059</v>
+      </c>
     </row>
-    <row r="13" spans="1:53">
+    <row r="13" spans="1:54">
       <c r="A13" s="1">
         <v>43830</v>
       </c>
@@ -2008,8 +2041,11 @@
       <c r="BA13">
         <v>3.057436569079708</v>
       </c>
+      <c r="BB13">
+        <v>3.057436569079708</v>
+      </c>
     </row>
-    <row r="14" spans="1:53">
+    <row r="14" spans="1:54">
       <c r="A14" s="1">
         <v>44196</v>
       </c>
@@ -2103,8 +2139,11 @@
       <c r="BA14">
         <v>-7.240028578896962</v>
       </c>
+      <c r="BB14">
+        <v>-7.240028578896962</v>
+      </c>
     </row>
-    <row r="15" spans="1:53">
+    <row r="15" spans="1:54">
       <c r="A15" s="1">
         <v>44561</v>
       </c>
@@ -2186,8 +2225,11 @@
       <c r="BA15">
         <v>4.518318737295335</v>
       </c>
+      <c r="BB15">
+        <v>4.518318737295335</v>
+      </c>
     </row>
-    <row r="16" spans="1:53">
+    <row r="16" spans="1:54">
       <c r="A16" s="1">
         <v>44926</v>
       </c>
@@ -2257,8 +2299,11 @@
       <c r="BA16">
         <v>8.368890311302657</v>
       </c>
+      <c r="BB16">
+        <v>8.368890311302657</v>
+      </c>
     </row>
-    <row r="17" spans="1:53">
+    <row r="17" spans="1:54">
       <c r="A17" s="1">
         <v>45291</v>
       </c>
@@ -2316,8 +2361,11 @@
       <c r="BA17">
         <v>-0.5780765226327311</v>
       </c>
+      <c r="BB17">
+        <v>-0.5780765226327311</v>
+      </c>
     </row>
-    <row r="18" spans="1:53">
+    <row r="18" spans="1:54">
       <c r="A18" s="1">
         <v>45657</v>
       </c>
@@ -2363,8 +2411,11 @@
       <c r="BA18">
         <v>-2.031769649484816</v>
       </c>
+      <c r="BB18">
+        <v>-2.031769649484816</v>
+      </c>
     </row>
-    <row r="19" spans="1:53">
+    <row r="19" spans="1:54">
       <c r="A19" s="1">
         <v>46022</v>
       </c>
@@ -2398,8 +2449,11 @@
       <c r="BA19">
         <v>3.002653050584203</v>
       </c>
+      <c r="BB19">
+        <v>2.560577522109297</v>
+      </c>
     </row>
-    <row r="20" spans="1:53">
+    <row r="20" spans="1:54">
       <c r="A20" s="1">
         <v>46387</v>
       </c>
@@ -2421,8 +2475,11 @@
       <c r="BA20">
         <v>6.721754212725695</v>
       </c>
+      <c r="BB20">
+        <v>1.325305149734723</v>
+      </c>
     </row>
-    <row r="21" spans="1:53">
+    <row r="21" spans="1:54">
       <c r="A21" s="1">
         <v>46752</v>
       </c>
@@ -2432,8 +2489,11 @@
       <c r="BA21">
         <v>6.73265239045755</v>
       </c>
+      <c r="BB21">
+        <v>0.1333065884001616</v>
+      </c>
     </row>
-    <row r="22" spans="1:53">
+    <row r="22" spans="1:54">
       <c r="A22" s="1">
         <v>47118</v>
       </c>
